--- a/data/SGE 3 Clincal Dates_091721.xlsx
+++ b/data/SGE 3 Clincal Dates_091721.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jawhitl/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc216/Documents/giterdone/SGE2_behavior/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA59E31-6647-BB4A-8E16-F7407910045E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D89FD-4DE0-214F-B45D-BF31351D9CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29720" yWindow="1720" windowWidth="35280" windowHeight="16220" activeTab="1" xr2:uid="{94EB64C6-3C48-C64A-B761-4B15A543B91D}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="25840" windowHeight="22500" xr2:uid="{94EB64C6-3C48-C64A-B761-4B15A543B91D}"/>
   </bookViews>
   <sheets>
     <sheet name="Clinical Dates" sheetId="5" r:id="rId1"/>
@@ -24,8 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -532,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,16 +556,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -576,22 +571,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -910,8 +890,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EE6D81-F0CC-0842-8F55-ED1E14A8DA2B}">
   <dimension ref="A1:Q170"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A94" sqref="A94"/>
+      <selection pane="topRight" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,18 +902,17 @@
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="6" customWidth="1"/>
-    <col min="7" max="7" width="23" style="9" customWidth="1"/>
+    <col min="6" max="7" width="23" style="6" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.83203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.83203125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.83203125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -954,7 +935,7 @@
       <c r="F1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -972,7 +953,7 @@
       <c r="L1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -984,7 +965,7 @@
       <c r="P1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1008,7 +989,7 @@
         <f>DATEDIF(D2,E2,"d")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1051,7 +1032,7 @@
         <f t="shared" ref="L3:L7" si="0">DATEDIF(J3,K3,"d")</f>
         <v>19</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N3" s="2"/>
@@ -1078,7 +1059,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N4" s="2"/>
@@ -1105,7 +1086,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N5" s="2"/>
@@ -1141,7 +1122,7 @@
         <f t="shared" ref="F7:F109" si="1">DATEDIF(D7,E7,"d")</f>
         <v>14</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>95</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1160,7 +1141,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="N7" s="2"/>
@@ -1184,7 +1165,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>97</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1212,7 +1193,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1252,7 +1233,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1276,7 +1257,7 @@
       <c r="P11" s="1">
         <v>8</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1321,7 +1302,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>96</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1354,7 +1335,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1378,7 +1359,7 @@
       <c r="P16" s="1">
         <v>5</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1399,7 +1380,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1411,10 +1392,10 @@
       <c r="O17" s="2">
         <v>44411</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="8">
         <v>13</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1435,7 +1416,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1450,7 +1431,7 @@
       <c r="P18" s="1">
         <v>12</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1514,7 +1495,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1548,7 +1529,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1608,7 +1589,7 @@
       <c r="E27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1620,16 +1601,12 @@
       <c r="K27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1690,7 +1667,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -1744,7 +1721,7 @@
         <f t="shared" ref="L33:L34" si="2">DATEDIF(J33,K33,"d")</f>
         <v>7</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N33" s="2">
@@ -1756,7 +1733,7 @@
       <c r="P33" s="6">
         <v>28</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1786,7 +1763,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N34" s="2">
@@ -1798,7 +1775,7 @@
       <c r="P34" s="6">
         <v>41</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1887,7 +1864,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -1920,7 +1897,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -1960,7 +1937,7 @@
       <c r="P43" s="1">
         <v>22</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="Q43" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1978,7 +1955,7 @@
       <c r="P44" s="1">
         <v>7</v>
       </c>
-      <c r="Q44" s="8" t="s">
+      <c r="Q44" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2057,7 +2034,7 @@
       <c r="P48" s="1">
         <v>27</v>
       </c>
-      <c r="Q48" s="8" t="s">
+      <c r="Q48" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2104,7 +2081,7 @@
       <c r="P50" s="1">
         <v>6</v>
       </c>
-      <c r="Q50" s="8" t="s">
+      <c r="Q50" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2120,7 +2097,7 @@
       <c r="P51" s="1">
         <v>14</v>
       </c>
-      <c r="Q51" s="8" t="s">
+      <c r="Q51" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2136,7 +2113,7 @@
       <c r="P52" s="1">
         <v>6</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="Q52" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2199,7 +2176,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -2218,7 +2195,7 @@
         <f t="shared" ref="L56" si="3">DATEDIF(J56,K56,"d")</f>
         <v>9</v>
       </c>
-      <c r="M56" s="8" t="s">
+      <c r="M56" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N56" s="2"/>
@@ -2242,7 +2219,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -2270,7 +2247,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -2310,7 +2287,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -2342,7 +2319,7 @@
       <c r="E61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -2394,7 +2371,7 @@
         <f t="shared" ref="L63" si="4">DATEDIF(J63,K63,"d")</f>
         <v>2</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="M63" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N63" s="2">
@@ -2406,7 +2383,7 @@
       <c r="P63" s="6">
         <v>8</v>
       </c>
-      <c r="Q63" s="8" t="s">
+      <c r="Q63" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2433,7 +2410,7 @@
       <c r="L64" s="6">
         <v>2</v>
       </c>
-      <c r="M64" s="8" t="s">
+      <c r="M64" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N64" s="2">
@@ -2445,7 +2422,7 @@
       <c r="P64" s="6">
         <v>5</v>
       </c>
-      <c r="Q64" s="8" t="s">
+      <c r="Q64" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2478,7 +2455,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -2502,7 +2479,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -2534,7 +2511,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -2558,7 +2535,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -2582,7 +2559,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -2614,7 +2591,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -2647,7 +2624,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -2671,7 +2648,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -2703,7 +2680,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -2727,7 +2704,7 @@
       <c r="P77" s="1">
         <v>1</v>
       </c>
-      <c r="Q77" s="8" t="s">
+      <c r="Q77" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2748,7 +2725,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -2780,7 +2757,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -2799,7 +2776,7 @@
         <f t="shared" ref="L80:L81" si="5">DATEDIF(J80,K80,"d")</f>
         <v>8</v>
       </c>
-      <c r="M80" s="8" t="s">
+      <c r="M80" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N80" s="2">
@@ -2829,7 +2806,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -2845,7 +2822,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="M81" s="8" t="s">
+      <c r="M81" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N81" s="2">
@@ -2875,7 +2852,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="6" t="s">
         <v>99</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -2892,7 +2869,7 @@
       <c r="P82" s="1">
         <v>13</v>
       </c>
-      <c r="Q82" s="8" t="s">
+      <c r="Q82" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2913,7 +2890,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="6" t="s">
         <v>99</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -2930,7 +2907,7 @@
       <c r="P83" s="1">
         <v>1</v>
       </c>
-      <c r="Q83" s="8" t="s">
+      <c r="Q83" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2951,7 +2928,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -2968,7 +2945,7 @@
       <c r="P84" s="1">
         <v>11</v>
       </c>
-      <c r="Q84" s="8" t="s">
+      <c r="Q84" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2989,7 +2966,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="6" t="s">
         <v>92</v>
       </c>
       <c r="J85" s="2"/>
@@ -3003,7 +2980,7 @@
       <c r="P85" s="1">
         <v>9</v>
       </c>
-      <c r="Q85" s="8" t="s">
+      <c r="Q85" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3027,7 +3004,7 @@
       <c r="P86" s="1">
         <v>7</v>
       </c>
-      <c r="Q86" s="8" t="s">
+      <c r="Q86" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3051,7 +3028,7 @@
       <c r="P87" s="1">
         <v>8</v>
       </c>
-      <c r="Q87" s="8" t="s">
+      <c r="Q87" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3075,7 +3052,7 @@
       <c r="P88" s="1">
         <v>8</v>
       </c>
-      <c r="Q88" s="8" t="s">
+      <c r="Q88" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3099,7 +3076,7 @@
       <c r="P89" s="1">
         <v>16</v>
       </c>
-      <c r="Q89" s="8" t="s">
+      <c r="Q89" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3144,7 +3121,7 @@
         <f t="shared" ref="L91:L94" si="6">DATEDIF(J91,K91,"d")</f>
         <v>13</v>
       </c>
-      <c r="M91" s="8" t="s">
+      <c r="M91" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N91" s="2"/>
@@ -3171,7 +3148,7 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="M92" s="8" t="s">
+      <c r="M92" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N92" s="2"/>
@@ -3198,7 +3175,7 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="M93" s="8" t="s">
+      <c r="M93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N93" s="2"/>
@@ -3225,7 +3202,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M94" s="8" t="s">
+      <c r="M94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N94" s="2"/>
@@ -3302,7 +3279,7 @@
       <c r="P98" s="1">
         <v>12</v>
       </c>
-      <c r="Q98" s="8" t="s">
+      <c r="Q98" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3364,7 +3341,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -3383,7 +3360,7 @@
         <f t="shared" ref="L102:L105" si="7">DATEDIF(J102,K102,"d")</f>
         <v>5</v>
       </c>
-      <c r="M102" s="8" t="s">
+      <c r="M102" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N102" s="2"/>
@@ -3407,7 +3384,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -3423,7 +3400,7 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="M103" s="8" t="s">
+      <c r="M103" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N103" s="2"/>
@@ -3447,7 +3424,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="G104" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -3463,7 +3440,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M104" s="8" t="s">
+      <c r="M104" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N104" s="2"/>
@@ -3487,7 +3464,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -3503,7 +3480,7 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="M105" s="8" t="s">
+      <c r="M105" s="1" t="s">
         <v>79</v>
       </c>
       <c r="N105" s="2"/>
@@ -3527,7 +3504,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -3536,17 +3513,17 @@
       <c r="J106" s="2">
         <v>43900</v>
       </c>
-      <c r="K106" s="7">
+      <c r="K106" s="2">
         <v>43927</v>
       </c>
       <c r="L106" s="6">
         <v>27</v>
       </c>
-      <c r="M106" s="8" t="s">
+      <c r="M106" s="1" t="s">
         <v>79</v>
       </c>
       <c r="N106" s="2"/>
-      <c r="O106" s="7"/>
+      <c r="O106" s="2"/>
       <c r="P106" s="6"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -3559,17 +3536,17 @@
       <c r="J107" s="2">
         <v>43929</v>
       </c>
-      <c r="K107" s="7">
+      <c r="K107" s="2">
         <v>43935</v>
       </c>
       <c r="L107" s="6">
         <v>6</v>
       </c>
-      <c r="M107" s="8" t="s">
+      <c r="M107" s="1" t="s">
         <v>79</v>
       </c>
       <c r="N107" s="2"/>
-      <c r="O107" s="7"/>
+      <c r="O107" s="2"/>
       <c r="P107" s="6"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -3577,10 +3554,10 @@
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="7"/>
+      <c r="K108" s="2"/>
       <c r="L108" s="6"/>
       <c r="N108" s="2"/>
-      <c r="O108" s="7"/>
+      <c r="O108" s="2"/>
       <c r="P108" s="6"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -3603,7 +3580,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="6" t="s">
         <v>96</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -3622,7 +3599,7 @@
         <f t="shared" ref="L109:L111" si="8">DATEDIF(J109,K109,"d")</f>
         <v>11</v>
       </c>
-      <c r="M109" s="8" t="s">
+      <c r="M109" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N109" s="2"/>
@@ -3646,7 +3623,7 @@
         <f t="shared" ref="F110:F168" si="9">DATEDIF(D110,E110,"d")</f>
         <v>7</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -3662,7 +3639,7 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="M110" s="8" t="s">
+      <c r="M110" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N110" s="2"/>
@@ -3686,7 +3663,7 @@
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -3702,7 +3679,7 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="M111" s="8" t="s">
+      <c r="M111" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N111" s="2"/>
@@ -3726,7 +3703,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="G112" s="9" t="s">
+      <c r="G112" s="6" t="s">
         <v>97</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -3793,7 +3770,7 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -3812,7 +3789,7 @@
         <f t="shared" ref="L116:L123" si="10">DATEDIF(J116,K116,"d")</f>
         <v>30</v>
       </c>
-      <c r="M116" s="8" t="s">
+      <c r="M116" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N116" s="2">
@@ -3845,7 +3822,7 @@
       <c r="L117" s="6">
         <v>18</v>
       </c>
-      <c r="M117" s="8" t="s">
+      <c r="M117" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N117" s="2">
@@ -3929,7 +3906,7 @@
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="M121" s="8" t="s">
+      <c r="M121" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N121" s="2"/>
@@ -3956,7 +3933,7 @@
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="M122" s="8" t="s">
+      <c r="M122" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N122" s="2"/>
@@ -3983,7 +3960,7 @@
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="M123" s="8" t="s">
+      <c r="M123" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N123" s="2"/>
@@ -4019,7 +3996,7 @@
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -4052,7 +4029,7 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -4095,7 +4072,7 @@
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -4140,7 +4117,7 @@
         <f t="shared" ref="L131:L133" si="11">DATEDIF(J131,K131,"d")</f>
         <v>19</v>
       </c>
-      <c r="M131" s="8" t="s">
+      <c r="M131" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N131" s="2"/>
@@ -4167,7 +4144,7 @@
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="M132" s="8" t="s">
+      <c r="M132" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N132" s="2"/>
@@ -4194,7 +4171,7 @@
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="M133" s="8" t="s">
+      <c r="M133" s="1" t="s">
         <v>79</v>
       </c>
       <c r="N133" s="2"/>
@@ -4230,7 +4207,7 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="G135" s="9" t="s">
+      <c r="G135" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H135" s="1" t="s">
@@ -4272,7 +4249,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="6" t="s">
         <v>96</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -4288,7 +4265,7 @@
         <f t="shared" ref="L137" si="12">DATEDIF(J137,K137,"d")</f>
         <v>4</v>
       </c>
-      <c r="M137" s="8" t="s">
+      <c r="M137" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N137" s="2"/>
@@ -4312,7 +4289,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G138" s="9" t="s">
+      <c r="G138" s="6" t="s">
         <v>96</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -4336,7 +4313,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -4392,7 +4369,7 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G143" s="9" t="s">
+      <c r="G143" s="6" t="s">
         <v>96</v>
       </c>
       <c r="H143" s="1" t="s">
@@ -4416,7 +4393,7 @@
       <c r="P143" s="6">
         <v>9</v>
       </c>
-      <c r="Q143" s="8" t="s">
+      <c r="Q143" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4434,7 +4411,7 @@
       <c r="P144" s="1">
         <v>10</v>
       </c>
-      <c r="Q144" s="8" t="s">
+      <c r="Q144" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4452,7 +4429,7 @@
       <c r="P145" s="1">
         <v>10</v>
       </c>
-      <c r="Q145" s="8" t="s">
+      <c r="Q145" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4466,7 +4443,7 @@
       <c r="P146" s="1">
         <v>8</v>
       </c>
-      <c r="Q146" s="8" t="s">
+      <c r="Q146" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4553,7 +4530,6 @@
       <c r="C151" s="4"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
-      <c r="Q151" s="1"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -4586,7 +4562,7 @@
       <c r="L152" s="6">
         <v>9</v>
       </c>
-      <c r="M152" s="8" t="s">
+      <c r="M152" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N152" s="2"/>
@@ -4606,7 +4582,7 @@
       <c r="L153" s="6">
         <v>5</v>
       </c>
-      <c r="M153" s="8" t="s">
+      <c r="M153" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N153" s="2"/>
@@ -4647,7 +4623,7 @@
       <c r="L155" s="6">
         <v>6</v>
       </c>
-      <c r="M155" s="8" t="s">
+      <c r="M155" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N155" s="2">
@@ -4674,7 +4650,7 @@
       <c r="L156" s="6">
         <v>10</v>
       </c>
-      <c r="M156" s="8" t="s">
+      <c r="M156" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N156" s="2">
@@ -4747,7 +4723,7 @@
       <c r="F160" s="6">
         <v>32</v>
       </c>
-      <c r="G160" s="9" t="s">
+      <c r="G160" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H160" s="1" t="s">
@@ -4759,7 +4735,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="6"/>
-      <c r="M160" s="10"/>
+      <c r="M160" s="7"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" s="6"/>
@@ -4777,7 +4753,7 @@
       <c r="L161" s="6">
         <v>11</v>
       </c>
-      <c r="M161" s="10" t="s">
+      <c r="M161" s="7" t="s">
         <v>80</v>
       </c>
       <c r="N161" s="2"/>
@@ -4791,7 +4767,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="6"/>
-      <c r="M162" s="10"/>
+      <c r="M162" s="7"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="P162" s="6"/>
@@ -4817,7 +4793,7 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="G163" s="9" t="s">
+      <c r="G163" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -4876,14 +4852,12 @@
       <c r="L165" s="1">
         <v>5</v>
       </c>
-      <c r="Q165" s="1"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B166" s="3"/>
       <c r="C166" s="4"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
-      <c r="Q166" s="1"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
@@ -4905,7 +4879,7 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="G167" s="9" t="s">
+      <c r="G167" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -4924,7 +4898,7 @@
         <f t="shared" ref="L167:L169" si="13">DATEDIF(J167,K167,"d")</f>
         <v>7</v>
       </c>
-      <c r="M167" s="8" t="s">
+      <c r="M167" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N167" s="2">
@@ -4957,7 +4931,7 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="G168" s="9" t="s">
+      <c r="G168" s="6" t="s">
         <v>93</v>
       </c>
       <c r="H168" s="1" t="s">
@@ -4973,7 +4947,7 @@
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="M168" s="8" t="s">
+      <c r="M168" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N168" s="2">
@@ -5015,7 +4989,7 @@
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="M169" s="8" t="s">
+      <c r="M169" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N169" s="2"/>
@@ -5034,7 +5008,7 @@
       <c r="L170" s="1">
         <v>7</v>
       </c>
-      <c r="M170" s="8" t="s">
+      <c r="M170" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5047,31 +5021,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DB9772-07D0-0D4E-B5B8-A135DA320737}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" style="13" customWidth="1"/>
-    <col min="3" max="5" width="22" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="13" customWidth="1"/>
-    <col min="7" max="8" width="23.5" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="17" style="13" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="22" style="13" customWidth="1"/>
-    <col min="14" max="14" width="20" style="13" customWidth="1"/>
-    <col min="15" max="16" width="23.5" style="13" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="13" customWidth="1"/>
-    <col min="19" max="19" width="16" style="13" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="22" style="13" customWidth="1"/>
-    <col min="22" max="22" width="22.83203125" style="13" customWidth="1"/>
-    <col min="23" max="24" width="23.5" style="13" customWidth="1"/>
-    <col min="25" max="25" width="26.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19" style="10" customWidth="1"/>
+    <col min="3" max="5" width="22" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="10" customWidth="1"/>
+    <col min="7" max="8" width="23.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="17" style="10" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="22" style="10" customWidth="1"/>
+    <col min="14" max="14" width="20" style="10" customWidth="1"/>
+    <col min="15" max="16" width="23.5" style="10" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="10" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="16" style="10" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="22" style="10" customWidth="1"/>
+    <col min="22" max="22" width="22.83203125" style="10" customWidth="1"/>
+    <col min="23" max="24" width="23.5" style="10" customWidth="1"/>
+    <col min="25" max="25" width="26.6640625" style="10" customWidth="1"/>
     <col min="26" max="26" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5082,7 +5056,7 @@
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -5100,13 +5074,13 @@
       <c r="H1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>104</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -5124,13 +5098,13 @@
       <c r="P1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="10" t="s">
         <v>109</v>
       </c>
       <c r="T1" s="6" t="s">
@@ -5139,7 +5113,7 @@
       <c r="U1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="9" t="s">
         <v>117</v>
       </c>
       <c r="W1" s="6" t="s">
@@ -5148,7 +5122,7 @@
       <c r="X1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5156,49 +5130,49 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="10">
         <v>4</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="10">
         <v>74</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="10">
         <v>19</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="10">
         <v>55</v>
       </c>
-      <c r="O2" s="13">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="17">
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5206,58 +5180,58 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>28</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>21</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>7</v>
       </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
         <v>13</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="10">
         <v>13</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="13">
-        <v>0</v>
-      </c>
-      <c r="T3" s="13">
-        <v>0</v>
-      </c>
-      <c r="U3" s="13">
-        <v>0</v>
-      </c>
-      <c r="V3" s="13">
-        <v>0</v>
-      </c>
-      <c r="W3" s="13">
-        <v>0</v>
-      </c>
-      <c r="X3" s="13">
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5265,70 +5239,70 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>8</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13" t="s">
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="10">
         <v>2</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="10">
         <v>8</v>
       </c>
-      <c r="U4" s="13">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13">
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
         <v>8</v>
       </c>
-      <c r="W4" s="13">
-        <v>0</v>
-      </c>
-      <c r="X4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="17">
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5336,97 +5310,97 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>17</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>17</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13" t="s">
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="10">
         <v>4</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="10">
         <v>37</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="10">
         <v>37</v>
       </c>
-      <c r="V6" s="13">
-        <v>0</v>
-      </c>
-      <c r="W6" s="13">
-        <v>0</v>
-      </c>
-      <c r="X6" s="13">
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5434,67 +5408,67 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="R7" s="13" t="s">
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="S7" s="13">
-        <v>0</v>
-      </c>
-      <c r="T7" s="13">
-        <v>0</v>
-      </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13">
-        <v>0</v>
-      </c>
-      <c r="W7" s="13">
-        <v>0</v>
-      </c>
-      <c r="X7" s="13">
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5502,67 +5476,67 @@
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>21</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>21</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13" t="s">
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S8" s="13">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="13">
-        <v>0</v>
-      </c>
-      <c r="V8" s="13">
-        <v>0</v>
-      </c>
-      <c r="W8" s="13">
-        <v>0</v>
-      </c>
-      <c r="X8" s="13">
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5570,67 +5544,67 @@
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13" t="s">
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="S9" s="13">
-        <v>0</v>
-      </c>
-      <c r="T9" s="13">
-        <v>0</v>
-      </c>
-      <c r="U9" s="13">
-        <v>0</v>
-      </c>
-      <c r="V9" s="13">
-        <v>0</v>
-      </c>
-      <c r="W9" s="13">
-        <v>0</v>
-      </c>
-      <c r="X9" s="13">
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5638,34 +5612,34 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="17">
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5673,232 +5647,232 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
         <v>12</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13" t="s">
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="R11" s="13" t="s">
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S11" s="13">
-        <v>0</v>
-      </c>
-      <c r="T11" s="13">
-        <v>0</v>
-      </c>
-      <c r="U11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11" s="13">
-        <v>0</v>
-      </c>
-      <c r="W11" s="13">
-        <v>0</v>
-      </c>
-      <c r="X11" s="13">
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
         <v>12</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>12</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13" t="s">
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
-        <v>0</v>
-      </c>
-      <c r="R12" s="13" t="s">
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S12" s="13">
-        <v>0</v>
-      </c>
-      <c r="T12" s="13">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
-      <c r="W12" s="13">
-        <v>0</v>
-      </c>
-      <c r="X12" s="13">
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0</v>
+      </c>
+      <c r="X12" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <v>2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="10">
         <v>12</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="10">
         <v>12</v>
       </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="14" t="s">
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="10">
         <v>2</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="10">
         <v>69</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="10">
         <v>69</v>
       </c>
-      <c r="V13" s="13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="13">
-        <v>0</v>
-      </c>
-      <c r="X13" s="13">
+      <c r="V13" s="10">
+        <v>0</v>
+      </c>
+      <c r="W13" s="10">
+        <v>0</v>
+      </c>
+      <c r="X13" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="13">
-        <v>1</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="17">
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5906,67 +5880,67 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="13">
-        <v>0</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <v>0</v>
-      </c>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="R15" s="13" t="s">
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S15" s="13">
-        <v>0</v>
-      </c>
-      <c r="T15" s="13">
-        <v>0</v>
-      </c>
-      <c r="U15" s="13">
-        <v>0</v>
-      </c>
-      <c r="V15" s="13">
-        <v>0</v>
-      </c>
-      <c r="W15" s="13">
-        <v>0</v>
-      </c>
-      <c r="X15" s="13">
+      <c r="S15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
+        <v>0</v>
+      </c>
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5974,114 +5948,114 @@
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>16</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>16</v>
       </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-      <c r="L16" s="13">
-        <v>0</v>
-      </c>
-      <c r="M16" s="13">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13">
-        <v>0</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13" t="s">
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S16" s="13">
-        <v>0</v>
-      </c>
-      <c r="T16" s="13">
-        <v>0</v>
-      </c>
-      <c r="U16" s="13">
-        <v>0</v>
-      </c>
-      <c r="V16" s="13">
-        <v>0</v>
-      </c>
-      <c r="W16" s="13">
-        <v>0</v>
-      </c>
-      <c r="X16" s="13">
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10">
+        <v>0</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0</v>
+      </c>
+      <c r="X16" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="13">
-        <v>0</v>
-      </c>
-      <c r="L17" s="13">
-        <v>0</v>
-      </c>
-      <c r="M17" s="13">
-        <v>0</v>
-      </c>
-      <c r="N17" s="13">
-        <v>0</v>
-      </c>
-      <c r="O17" s="13">
-        <v>0</v>
-      </c>
-      <c r="P17" s="13">
-        <v>0</v>
-      </c>
-      <c r="R17" s="13" t="s">
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="10">
         <v>2</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="10">
         <v>29</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="10">
         <v>29</v>
       </c>
-      <c r="V17" s="13">
-        <v>0</v>
-      </c>
-      <c r="W17" s="13">
-        <v>0</v>
-      </c>
-      <c r="X17" s="13">
+      <c r="V17" s="10">
+        <v>0</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
+      <c r="X17" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6089,46 +6063,46 @@
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="13">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="13" t="s">
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="13">
-        <v>0</v>
-      </c>
-      <c r="L18" s="13">
-        <v>0</v>
-      </c>
-      <c r="M18" s="13">
-        <v>0</v>
-      </c>
-      <c r="N18" s="13">
-        <v>0</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0</v>
-      </c>
-      <c r="P18" s="13">
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6136,67 +6110,67 @@
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="13">
-        <v>0</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="13">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13">
-        <v>0</v>
-      </c>
-      <c r="M19" s="13">
-        <v>0</v>
-      </c>
-      <c r="N19" s="13">
-        <v>0</v>
-      </c>
-      <c r="O19" s="13">
-        <v>0</v>
-      </c>
-      <c r="P19" s="13">
-        <v>0</v>
-      </c>
-      <c r="R19" s="13" t="s">
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="S19" s="13">
-        <v>1</v>
-      </c>
-      <c r="T19" s="13">
+      <c r="S19" s="10">
+        <v>1</v>
+      </c>
+      <c r="T19" s="10">
         <v>27</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="10">
         <v>27</v>
       </c>
-      <c r="V19" s="13">
-        <v>0</v>
-      </c>
-      <c r="W19" s="13">
-        <v>0</v>
-      </c>
-      <c r="X19" s="13">
+      <c r="V19" s="10">
+        <v>0</v>
+      </c>
+      <c r="W19" s="10">
+        <v>0</v>
+      </c>
+      <c r="X19" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6204,146 +6178,146 @@
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="13">
-        <v>0</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="13">
-        <v>0</v>
-      </c>
-      <c r="L20" s="13">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13">
-        <v>0</v>
-      </c>
-      <c r="N20" s="13">
-        <v>0</v>
-      </c>
-      <c r="O20" s="13">
-        <v>0</v>
-      </c>
-      <c r="P20" s="13">
-        <v>0</v>
-      </c>
-      <c r="R20" s="13" t="s">
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="10">
         <v>3</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="10">
         <v>26</v>
       </c>
-      <c r="U20" s="13">
-        <v>0</v>
-      </c>
-      <c r="V20" s="13">
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10">
         <v>26</v>
       </c>
-      <c r="W20" s="13">
-        <v>0</v>
-      </c>
-      <c r="X20" s="13">
+      <c r="W20" s="10">
+        <v>0</v>
+      </c>
+      <c r="X20" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="13">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="J21" s="13" t="s">
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>23</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <v>23</v>
       </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13" t="s">
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="K22" s="13">
-        <v>1</v>
-      </c>
-      <c r="L22" s="13">
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
         <v>9</v>
       </c>
-      <c r="M22" s="13">
-        <v>0</v>
-      </c>
-      <c r="N22" s="13">
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
         <v>9</v>
       </c>
-      <c r="O22" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="17">
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6351,67 +6325,67 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="13">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
         <v>10</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <v>10</v>
       </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13" t="s">
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-      <c r="N23" s="13">
-        <v>0</v>
-      </c>
-      <c r="O23" s="13">
-        <v>0</v>
-      </c>
-      <c r="P23" s="13">
-        <v>0</v>
-      </c>
-      <c r="R23" s="13" t="s">
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="S23" s="13">
-        <v>0</v>
-      </c>
-      <c r="T23" s="13">
-        <v>0</v>
-      </c>
-      <c r="U23" s="13">
-        <v>0</v>
-      </c>
-      <c r="V23" s="13">
-        <v>0</v>
-      </c>
-      <c r="W23" s="13">
-        <v>0</v>
-      </c>
-      <c r="X23" s="13">
+      <c r="S23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
+        <v>0</v>
+      </c>
+      <c r="W23" s="10">
+        <v>0</v>
+      </c>
+      <c r="X23" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6419,125 +6393,125 @@
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="13">
-        <v>0</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="J24" s="13" t="s">
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="10">
         <v>2</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="10">
         <v>4</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="10">
         <v>4</v>
       </c>
-      <c r="N24" s="13">
-        <v>0</v>
-      </c>
-      <c r="O24" s="13">
-        <v>0</v>
-      </c>
-      <c r="P24" s="13">
-        <v>0</v>
-      </c>
-      <c r="R24" s="13" t="s">
+      <c r="N24" s="10">
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="10">
         <v>2</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="10">
         <v>13</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="10">
         <v>13</v>
       </c>
-      <c r="V24" s="13">
-        <v>0</v>
-      </c>
-      <c r="W24" s="13">
-        <v>0</v>
-      </c>
-      <c r="X24" s="13">
+      <c r="V24" s="10">
+        <v>0</v>
+      </c>
+      <c r="W24" s="10">
+        <v>0</v>
+      </c>
+      <c r="X24" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="10">
         <v>2</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>15</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <v>15</v>
       </c>
-      <c r="F25" s="13">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="10">
         <v>3</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <v>11</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <v>11</v>
       </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6545,67 +6519,67 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="10">
         <v>3</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="10">
         <v>26</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="10">
         <v>26</v>
       </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13" t="s">
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0</v>
-      </c>
-      <c r="N27" s="13">
-        <v>0</v>
-      </c>
-      <c r="O27" s="13">
-        <v>0</v>
-      </c>
-      <c r="P27" s="13">
-        <v>0</v>
-      </c>
-      <c r="R27" s="13" t="s">
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0</v>
+      </c>
+      <c r="R27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="S27" s="13">
-        <v>0</v>
-      </c>
-      <c r="T27" s="13">
-        <v>0</v>
-      </c>
-      <c r="U27" s="13">
-        <v>0</v>
-      </c>
-      <c r="V27" s="13">
-        <v>0</v>
-      </c>
-      <c r="W27" s="13">
-        <v>0</v>
-      </c>
-      <c r="X27" s="13">
+      <c r="S27" s="10">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6613,67 +6587,67 @@
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="10">
         <v>2</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <v>32</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="10">
         <v>32</v>
       </c>
-      <c r="F28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="J28" s="13" t="s">
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="13">
-        <v>0</v>
-      </c>
-      <c r="L28" s="13">
-        <v>0</v>
-      </c>
-      <c r="M28" s="13">
-        <v>0</v>
-      </c>
-      <c r="N28" s="13">
-        <v>0</v>
-      </c>
-      <c r="O28" s="13">
-        <v>0</v>
-      </c>
-      <c r="P28" s="13">
-        <v>0</v>
-      </c>
-      <c r="R28" s="13" t="s">
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="S28" s="13">
-        <v>1</v>
-      </c>
-      <c r="T28" s="13">
-        <v>1</v>
-      </c>
-      <c r="U28" s="13">
-        <v>0</v>
-      </c>
-      <c r="V28" s="13">
-        <v>1</v>
-      </c>
-      <c r="W28" s="13">
-        <v>0</v>
-      </c>
-      <c r="X28" s="13">
+      <c r="S28" s="10">
+        <v>1</v>
+      </c>
+      <c r="T28" s="10">
+        <v>1</v>
+      </c>
+      <c r="U28" s="10">
+        <v>0</v>
+      </c>
+      <c r="V28" s="10">
+        <v>1</v>
+      </c>
+      <c r="W28" s="10">
+        <v>0</v>
+      </c>
+      <c r="X28" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6681,67 +6655,67 @@
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="10">
         <v>6</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>46</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="10">
         <v>38</v>
       </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
         <v>8</v>
       </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="13" t="s">
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="10">
         <v>2</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="10">
         <v>19</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="10">
         <v>8</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="10">
         <v>11</v>
       </c>
-      <c r="P29" s="13">
-        <v>0</v>
-      </c>
-      <c r="R29" s="13" t="s">
+      <c r="P29" s="10">
+        <v>0</v>
+      </c>
+      <c r="R29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="10">
         <v>10</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="10">
         <v>102</v>
       </c>
-      <c r="U29" s="13">
-        <v>0</v>
-      </c>
-      <c r="V29" s="13">
+      <c r="U29" s="10">
+        <v>0</v>
+      </c>
+      <c r="V29" s="10">
         <v>102</v>
       </c>
-      <c r="W29" s="13">
-        <v>0</v>
-      </c>
-      <c r="X29" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="17" t="s">
+      <c r="W29" s="10">
+        <v>0</v>
+      </c>
+      <c r="X29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6749,67 +6723,67 @@
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="13">
-        <v>0</v>
-      </c>
-      <c r="D30" s="13">
-        <v>0</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="J30" s="13" t="s">
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="10">
         <v>4</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="10">
         <v>49</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="10">
         <v>49</v>
       </c>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-      <c r="O30" s="13">
-        <v>0</v>
-      </c>
-      <c r="P30" s="13">
-        <v>0</v>
-      </c>
-      <c r="R30" s="13" t="s">
+      <c r="N30" s="10">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0</v>
+      </c>
+      <c r="R30" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="S30" s="13">
-        <v>0</v>
-      </c>
-      <c r="T30" s="13">
-        <v>0</v>
-      </c>
-      <c r="U30" s="13">
-        <v>0</v>
-      </c>
-      <c r="V30" s="13">
-        <v>0</v>
-      </c>
-      <c r="W30" s="13">
-        <v>0</v>
-      </c>
-      <c r="X30" s="13">
+      <c r="S30" s="10">
+        <v>0</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0</v>
+      </c>
+      <c r="U30" s="10">
+        <v>0</v>
+      </c>
+      <c r="V30" s="10">
+        <v>0</v>
+      </c>
+      <c r="W30" s="10">
+        <v>0</v>
+      </c>
+      <c r="X30" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6817,114 +6791,114 @@
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="13">
-        <v>0</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="13" t="s">
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K31" s="13">
-        <v>0</v>
-      </c>
-      <c r="L31" s="13">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13">
-        <v>0</v>
-      </c>
-      <c r="N31" s="13">
-        <v>0</v>
-      </c>
-      <c r="O31" s="13">
-        <v>0</v>
-      </c>
-      <c r="P31" s="13">
-        <v>0</v>
-      </c>
-      <c r="R31" s="13" t="s">
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0</v>
+      </c>
+      <c r="R31" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S31" s="13">
-        <v>0</v>
-      </c>
-      <c r="T31" s="13">
-        <v>0</v>
-      </c>
-      <c r="U31" s="13">
-        <v>0</v>
-      </c>
-      <c r="V31" s="13">
-        <v>0</v>
-      </c>
-      <c r="W31" s="13">
-        <v>0</v>
-      </c>
-      <c r="X31" s="13">
+      <c r="S31" s="10">
+        <v>0</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0</v>
+      </c>
+      <c r="U31" s="10">
+        <v>0</v>
+      </c>
+      <c r="V31" s="10">
+        <v>0</v>
+      </c>
+      <c r="W31" s="10">
+        <v>0</v>
+      </c>
+      <c r="X31" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K32" s="13">
-        <v>0</v>
-      </c>
-      <c r="L32" s="13">
-        <v>0</v>
-      </c>
-      <c r="M32" s="13">
-        <v>0</v>
-      </c>
-      <c r="N32" s="13">
-        <v>0</v>
-      </c>
-      <c r="O32" s="13">
-        <v>0</v>
-      </c>
-      <c r="P32" s="13">
-        <v>0</v>
-      </c>
-      <c r="R32" s="13" t="s">
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="R32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="S32" s="13">
-        <v>1</v>
-      </c>
-      <c r="T32" s="13">
+      <c r="S32" s="10">
+        <v>1</v>
+      </c>
+      <c r="T32" s="10">
         <v>12</v>
       </c>
-      <c r="U32" s="13">
-        <v>0</v>
-      </c>
-      <c r="V32" s="13">
+      <c r="U32" s="10">
+        <v>0</v>
+      </c>
+      <c r="V32" s="10">
         <v>12</v>
       </c>
-      <c r="W32" s="13">
-        <v>0</v>
-      </c>
-      <c r="X32" s="13">
+      <c r="W32" s="10">
+        <v>0</v>
+      </c>
+      <c r="X32" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6932,117 +6906,117 @@
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="13">
-        <v>0</v>
-      </c>
-      <c r="D33" s="13">
-        <v>0</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0</v>
-      </c>
-      <c r="J33" s="13" t="s">
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="K33" s="13">
-        <v>0</v>
-      </c>
-      <c r="L33" s="13">
-        <v>0</v>
-      </c>
-      <c r="M33" s="13">
-        <v>0</v>
-      </c>
-      <c r="N33" s="13">
-        <v>0</v>
-      </c>
-      <c r="O33" s="13">
-        <v>0</v>
-      </c>
-      <c r="P33" s="13">
-        <v>0</v>
-      </c>
-      <c r="R33" s="13" t="s">
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0</v>
+      </c>
+      <c r="R33" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S33" s="13">
-        <v>0</v>
-      </c>
-      <c r="T33" s="13">
-        <v>0</v>
-      </c>
-      <c r="U33" s="13">
-        <v>0</v>
-      </c>
-      <c r="V33" s="13">
-        <v>0</v>
-      </c>
-      <c r="W33" s="13">
-        <v>0</v>
-      </c>
-      <c r="X33" s="13">
+      <c r="S33" s="10">
+        <v>0</v>
+      </c>
+      <c r="T33" s="10">
+        <v>0</v>
+      </c>
+      <c r="U33" s="10">
+        <v>0</v>
+      </c>
+      <c r="V33" s="10">
+        <v>0</v>
+      </c>
+      <c r="W33" s="10">
+        <v>0</v>
+      </c>
+      <c r="X33" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="10">
         <v>5</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="10">
         <v>53</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="10">
         <v>53</v>
       </c>
-      <c r="F34" s="13">
-        <v>0</v>
-      </c>
-      <c r="G34" s="13">
-        <v>0</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13" t="s">
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="10">
         <v>5</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="10">
         <v>56</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="10">
         <v>56</v>
       </c>
-      <c r="N34" s="13">
-        <v>0</v>
-      </c>
-      <c r="O34" s="13">
-        <v>0</v>
-      </c>
-      <c r="P34" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="17">
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7050,96 +7024,96 @@
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="10">
         <v>4</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="10">
         <v>24</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="10">
         <v>22</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="10">
         <v>2</v>
       </c>
-      <c r="G35" s="13">
-        <v>0</v>
-      </c>
-      <c r="H35" s="13">
-        <v>1</v>
-      </c>
-      <c r="J35" s="13" t="s">
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="10">
         <v>3</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="10">
         <v>54</v>
       </c>
-      <c r="M35" s="13">
-        <v>0</v>
-      </c>
-      <c r="N35" s="13">
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
         <v>54</v>
       </c>
-      <c r="O35" s="13">
-        <v>0</v>
-      </c>
-      <c r="P35" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="17">
+      <c r="O35" s="10">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K36" s="13">
-        <v>0</v>
-      </c>
-      <c r="L36" s="13">
-        <v>0</v>
-      </c>
-      <c r="M36" s="13">
-        <v>0</v>
-      </c>
-      <c r="N36" s="13">
-        <v>0</v>
-      </c>
-      <c r="O36" s="13">
-        <v>0</v>
-      </c>
-      <c r="P36" s="13">
-        <v>0</v>
-      </c>
-      <c r="R36" s="13" t="s">
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="R36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="S36" s="13">
-        <v>0</v>
-      </c>
-      <c r="T36" s="13">
-        <v>0</v>
-      </c>
-      <c r="U36" s="13">
-        <v>0</v>
-      </c>
-      <c r="V36" s="13">
-        <v>0</v>
-      </c>
-      <c r="W36" s="13">
-        <v>0</v>
-      </c>
-      <c r="X36" s="13">
+      <c r="S36" s="10">
+        <v>0</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0</v>
+      </c>
+      <c r="V36" s="10">
+        <v>0</v>
+      </c>
+      <c r="W36" s="10">
+        <v>0</v>
+      </c>
+      <c r="X36" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7147,70 +7121,70 @@
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="13">
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
         <v>17</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="10">
         <v>17</v>
       </c>
-      <c r="F37" s="13">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="J37" s="13" t="s">
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="10">
         <v>2</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="10">
         <v>48</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="10">
         <v>48</v>
       </c>
-      <c r="N37" s="13">
-        <v>0</v>
-      </c>
-      <c r="O37" s="13">
-        <v>0</v>
-      </c>
-      <c r="P37" s="13">
-        <v>0</v>
-      </c>
-      <c r="R37" s="13" t="s">
+      <c r="N37" s="10">
+        <v>0</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="R37" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S37" s="10">
         <v>2</v>
       </c>
-      <c r="T37" s="13">
-        <v>0</v>
-      </c>
-      <c r="U37" s="13">
-        <v>0</v>
-      </c>
-      <c r="V37" s="13">
+      <c r="T37" s="10">
+        <v>0</v>
+      </c>
+      <c r="U37" s="10">
+        <v>0</v>
+      </c>
+      <c r="V37" s="10">
         <v>10</v>
       </c>
-      <c r="W37" s="13">
-        <v>0</v>
-      </c>
-      <c r="X37" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="17" t="s">
+      <c r="W37" s="10">
+        <v>0</v>
+      </c>
+      <c r="X37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="10" t="s">
         <v>138</v>
       </c>
       <c r="Z37" t="s">
@@ -7221,49 +7195,49 @@
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="13">
-        <v>0</v>
-      </c>
-      <c r="D38" s="13">
-        <v>0</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="J38" s="13" t="s">
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="10">
         <v>3</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="10">
         <v>47</v>
       </c>
-      <c r="M38" s="13">
-        <v>0</v>
-      </c>
-      <c r="N38" s="13">
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
         <v>47</v>
       </c>
-      <c r="O38" s="13">
-        <v>0</v>
-      </c>
-      <c r="P38" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="17">
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7271,28 +7245,28 @@
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="13">
-        <v>1</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
         <v>36</v>
       </c>
-      <c r="E39" s="13">
-        <v>0</v>
-      </c>
-      <c r="F39" s="13">
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
         <v>36</v>
       </c>
-      <c r="G39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17">
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7300,31 +7274,31 @@
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="13">
-        <v>1</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
         <v>3</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="10">
         <v>3</v>
       </c>
-      <c r="F40" s="13">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
-      <c r="J40" s="13" t="s">
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7332,28 +7306,28 @@
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="13">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
         <v>65</v>
       </c>
-      <c r="E41" s="13">
-        <v>0</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
         <v>65</v>
       </c>
-      <c r="G41" s="13">
-        <v>0</v>
-      </c>
-      <c r="H41" s="13">
-        <v>0</v>
-      </c>
-      <c r="I41" s="17">
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7361,67 +7335,67 @@
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="13">
-        <v>0</v>
-      </c>
-      <c r="D42" s="13">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13">
-        <v>0</v>
-      </c>
-      <c r="H42" s="13">
-        <v>0</v>
-      </c>
-      <c r="J42" s="13" t="s">
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="10">
         <v>3</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="10">
         <v>43</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="10">
         <v>43</v>
       </c>
-      <c r="N42" s="13">
-        <v>0</v>
-      </c>
-      <c r="O42" s="13">
-        <v>0</v>
-      </c>
-      <c r="P42" s="13">
-        <v>0</v>
-      </c>
-      <c r="R42" s="13" t="s">
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0</v>
+      </c>
+      <c r="R42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="S42" s="13">
-        <v>0</v>
-      </c>
-      <c r="T42" s="13">
-        <v>0</v>
-      </c>
-      <c r="U42" s="13">
-        <v>0</v>
-      </c>
-      <c r="V42" s="13">
-        <v>0</v>
-      </c>
-      <c r="W42" s="13">
-        <v>0</v>
-      </c>
-      <c r="X42" s="13">
+      <c r="S42" s="10">
+        <v>0</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0</v>
+      </c>
+      <c r="U42" s="10">
+        <v>0</v>
+      </c>
+      <c r="V42" s="10">
+        <v>0</v>
+      </c>
+      <c r="W42" s="10">
+        <v>0</v>
+      </c>
+      <c r="X42" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7429,67 +7403,67 @@
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="13">
-        <v>1</v>
-      </c>
-      <c r="D43" s="13">
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
         <v>8</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="10">
         <v>8</v>
       </c>
-      <c r="F43" s="13">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="J43" s="13" t="s">
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K43" s="13">
-        <v>0</v>
-      </c>
-      <c r="L43" s="13">
-        <v>0</v>
-      </c>
-      <c r="M43" s="13">
-        <v>0</v>
-      </c>
-      <c r="N43" s="13">
-        <v>0</v>
-      </c>
-      <c r="O43" s="13">
-        <v>0</v>
-      </c>
-      <c r="P43" s="13">
-        <v>0</v>
-      </c>
-      <c r="R43" s="13" t="s">
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
+        <v>0</v>
+      </c>
+      <c r="R43" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S43" s="13">
-        <v>0</v>
-      </c>
-      <c r="T43" s="13">
-        <v>0</v>
-      </c>
-      <c r="U43" s="13">
-        <v>0</v>
-      </c>
-      <c r="V43" s="13">
-        <v>0</v>
-      </c>
-      <c r="W43" s="13">
-        <v>0</v>
-      </c>
-      <c r="X43" s="13">
+      <c r="S43" s="10">
+        <v>0</v>
+      </c>
+      <c r="T43" s="10">
+        <v>0</v>
+      </c>
+      <c r="U43" s="10">
+        <v>0</v>
+      </c>
+      <c r="V43" s="10">
+        <v>0</v>
+      </c>
+      <c r="W43" s="10">
+        <v>0</v>
+      </c>
+      <c r="X43" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7497,78 +7471,78 @@
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="10">
         <v>3</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="10">
         <v>13</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="10">
         <v>13</v>
       </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
-      <c r="H44" s="13">
+      <c r="F44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
         <v>2</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K44" s="13">
-        <v>1</v>
-      </c>
-      <c r="L44" s="13">
+      <c r="K44" s="10">
+        <v>1</v>
+      </c>
+      <c r="L44" s="10">
         <v>4</v>
       </c>
-      <c r="M44" s="13">
-        <v>0</v>
-      </c>
-      <c r="N44" s="13">
+      <c r="M44" s="10">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
         <v>4</v>
       </c>
-      <c r="O44" s="13">
-        <v>0</v>
-      </c>
-      <c r="P44" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="18">
+      <c r="O44" s="10">
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="13">
-        <v>0</v>
-      </c>
-      <c r="D45" s="13">
-        <v>0</v>
-      </c>
-      <c r="E45" s="13">
-        <v>0</v>
-      </c>
-      <c r="F45" s="13">
-        <v>0</v>
-      </c>
-      <c r="G45" s="13">
-        <v>0</v>
-      </c>
-      <c r="H45" s="13">
-        <v>0</v>
-      </c>
-      <c r="I45" s="17">
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7576,67 +7550,67 @@
       <c r="A46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="13">
-        <v>1</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13">
-        <v>0</v>
-      </c>
-      <c r="F46" s="13">
-        <v>0</v>
-      </c>
-      <c r="G46" s="13">
-        <v>0</v>
-      </c>
-      <c r="H46" s="13">
-        <v>1</v>
-      </c>
-      <c r="J46" s="13" t="s">
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K46" s="13">
-        <v>0</v>
-      </c>
-      <c r="L46" s="13">
-        <v>0</v>
-      </c>
-      <c r="M46" s="13">
-        <v>0</v>
-      </c>
-      <c r="N46" s="13">
-        <v>0</v>
-      </c>
-      <c r="O46" s="13">
-        <v>0</v>
-      </c>
-      <c r="P46" s="13">
-        <v>0</v>
-      </c>
-      <c r="R46" s="13" t="s">
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10">
+        <v>0</v>
+      </c>
+      <c r="M46" s="10">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10">
+        <v>0</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10">
+        <v>0</v>
+      </c>
+      <c r="R46" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="S46" s="13">
+      <c r="S46" s="10">
         <v>4</v>
       </c>
-      <c r="T46" s="13">
+      <c r="T46" s="10">
         <v>37</v>
       </c>
-      <c r="U46" s="13">
-        <v>0</v>
-      </c>
-      <c r="V46" s="13">
+      <c r="U46" s="10">
+        <v>0</v>
+      </c>
+      <c r="V46" s="10">
         <v>37</v>
       </c>
-      <c r="W46" s="13">
-        <v>0</v>
-      </c>
-      <c r="X46" s="13">
+      <c r="W46" s="10">
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7644,67 +7618,67 @@
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="13">
-        <v>0</v>
-      </c>
-      <c r="D47" s="13">
-        <v>0</v>
-      </c>
-      <c r="E47" s="13">
-        <v>0</v>
-      </c>
-      <c r="F47" s="13">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13" t="s">
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K47" s="13">
-        <v>0</v>
-      </c>
-      <c r="L47" s="13">
-        <v>0</v>
-      </c>
-      <c r="M47" s="13">
-        <v>0</v>
-      </c>
-      <c r="N47" s="13">
-        <v>0</v>
-      </c>
-      <c r="O47" s="13">
-        <v>0</v>
-      </c>
-      <c r="P47" s="13">
-        <v>0</v>
-      </c>
-      <c r="R47" s="13" t="s">
+      <c r="K47" s="10">
+        <v>0</v>
+      </c>
+      <c r="L47" s="10">
+        <v>0</v>
+      </c>
+      <c r="M47" s="10">
+        <v>0</v>
+      </c>
+      <c r="N47" s="10">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
+        <v>0</v>
+      </c>
+      <c r="R47" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="S47" s="13">
-        <v>0</v>
-      </c>
-      <c r="T47" s="13">
-        <v>0</v>
-      </c>
-      <c r="U47" s="13">
-        <v>0</v>
-      </c>
-      <c r="V47" s="13">
-        <v>0</v>
-      </c>
-      <c r="W47" s="13">
-        <v>0</v>
-      </c>
-      <c r="X47" s="13">
+      <c r="S47" s="10">
+        <v>0</v>
+      </c>
+      <c r="T47" s="10">
+        <v>0</v>
+      </c>
+      <c r="U47" s="10">
+        <v>0</v>
+      </c>
+      <c r="V47" s="10">
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7712,67 +7686,67 @@
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="13">
-        <v>0</v>
-      </c>
-      <c r="D48" s="13">
-        <v>0</v>
-      </c>
-      <c r="E48" s="13">
-        <v>0</v>
-      </c>
-      <c r="F48" s="13">
-        <v>0</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-      <c r="J48" s="13" t="s">
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K48" s="13">
-        <v>0</v>
-      </c>
-      <c r="L48" s="13">
-        <v>0</v>
-      </c>
-      <c r="M48" s="13">
-        <v>0</v>
-      </c>
-      <c r="N48" s="13">
-        <v>0</v>
-      </c>
-      <c r="O48" s="13">
-        <v>0</v>
-      </c>
-      <c r="P48" s="13">
-        <v>0</v>
-      </c>
-      <c r="R48" s="13" t="s">
+      <c r="K48" s="10">
+        <v>0</v>
+      </c>
+      <c r="L48" s="10">
+        <v>0</v>
+      </c>
+      <c r="M48" s="10">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10">
+        <v>0</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
+        <v>0</v>
+      </c>
+      <c r="R48" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S48" s="13">
+      <c r="S48" s="10">
         <v>6</v>
       </c>
-      <c r="T48" s="13">
+      <c r="T48" s="10">
         <v>6</v>
       </c>
-      <c r="U48" s="13">
-        <v>0</v>
-      </c>
-      <c r="V48" s="13">
-        <v>0</v>
-      </c>
-      <c r="W48" s="13">
-        <v>0</v>
-      </c>
-      <c r="X48" s="13">
+      <c r="U48" s="10">
+        <v>0</v>
+      </c>
+      <c r="V48" s="10">
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7780,67 +7754,67 @@
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="13">
-        <v>0</v>
-      </c>
-      <c r="D49" s="13">
-        <v>0</v>
-      </c>
-      <c r="E49" s="13">
-        <v>0</v>
-      </c>
-      <c r="F49" s="13">
-        <v>0</v>
-      </c>
-      <c r="G49" s="13">
-        <v>0</v>
-      </c>
-      <c r="H49" s="13">
-        <v>0</v>
-      </c>
-      <c r="J49" s="13" t="s">
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="10">
         <v>2</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="10">
         <v>14</v>
       </c>
-      <c r="M49" s="13">
-        <v>0</v>
-      </c>
-      <c r="N49" s="13">
-        <v>0</v>
-      </c>
-      <c r="O49" s="13">
-        <v>0</v>
-      </c>
-      <c r="P49" s="13">
-        <v>0</v>
-      </c>
-      <c r="R49" s="13" t="s">
+      <c r="M49" s="10">
+        <v>0</v>
+      </c>
+      <c r="N49" s="10">
+        <v>0</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
+        <v>0</v>
+      </c>
+      <c r="R49" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="S49" s="13">
-        <v>0</v>
-      </c>
-      <c r="T49" s="13">
-        <v>0</v>
-      </c>
-      <c r="U49" s="13">
-        <v>0</v>
-      </c>
-      <c r="V49" s="13">
-        <v>0</v>
-      </c>
-      <c r="W49" s="13">
-        <v>0</v>
-      </c>
-      <c r="X49" s="13">
+      <c r="S49" s="10">
+        <v>0</v>
+      </c>
+      <c r="T49" s="10">
+        <v>0</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0</v>
+      </c>
+      <c r="V49" s="10">
+        <v>0</v>
+      </c>
+      <c r="W49" s="10">
+        <v>0</v>
+      </c>
+      <c r="X49" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7848,49 +7822,49 @@
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="10">
         <v>2</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="10">
         <v>16</v>
       </c>
-      <c r="M50" s="13">
-        <v>0</v>
-      </c>
-      <c r="N50" s="13">
-        <v>0</v>
-      </c>
-      <c r="O50" s="13">
-        <v>0</v>
-      </c>
-      <c r="P50" s="13">
-        <v>0</v>
-      </c>
-      <c r="R50" s="14" t="s">
+      <c r="M50" s="10">
+        <v>0</v>
+      </c>
+      <c r="N50" s="10">
+        <v>0</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <v>0</v>
+      </c>
+      <c r="R50" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="S50" s="13">
+      <c r="S50" s="10">
         <v>3</v>
       </c>
-      <c r="T50" s="13">
+      <c r="T50" s="10">
         <v>84</v>
       </c>
-      <c r="U50" s="13">
+      <c r="U50" s="10">
         <v>84</v>
       </c>
-      <c r="V50" s="13">
-        <v>0</v>
-      </c>
-      <c r="W50" s="13">
-        <v>0</v>
-      </c>
-      <c r="X50" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="19" t="s">
+      <c r="V50" s="10">
+        <v>0</v>
+      </c>
+      <c r="W50" s="10">
+        <v>0</v>
+      </c>
+      <c r="X50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="12" t="s">
         <v>137</v>
       </c>
       <c r="Z50" t="s">
@@ -7901,67 +7875,67 @@
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="13">
-        <v>1</v>
-      </c>
-      <c r="D51" s="13">
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10">
         <v>32</v>
       </c>
-      <c r="E51" s="13">
-        <v>0</v>
-      </c>
-      <c r="F51" s="13">
-        <v>0</v>
-      </c>
-      <c r="G51" s="13">
-        <v>0</v>
-      </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-      <c r="J51" s="13" t="s">
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K51" s="13">
-        <v>1</v>
-      </c>
-      <c r="L51" s="13">
+      <c r="K51" s="10">
+        <v>1</v>
+      </c>
+      <c r="L51" s="10">
         <v>11</v>
       </c>
-      <c r="M51" s="13">
-        <v>0</v>
-      </c>
-      <c r="N51" s="13">
-        <v>0</v>
-      </c>
-      <c r="O51" s="13">
-        <v>0</v>
-      </c>
-      <c r="P51" s="13">
-        <v>0</v>
-      </c>
-      <c r="R51" s="13" t="s">
+      <c r="M51" s="10">
+        <v>0</v>
+      </c>
+      <c r="N51" s="10">
+        <v>0</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <v>0</v>
+      </c>
+      <c r="R51" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="S51" s="13">
-        <v>0</v>
-      </c>
-      <c r="T51" s="13">
-        <v>0</v>
-      </c>
-      <c r="U51" s="13">
-        <v>0</v>
-      </c>
-      <c r="V51" s="13">
-        <v>0</v>
-      </c>
-      <c r="W51" s="13">
-        <v>0</v>
-      </c>
-      <c r="X51" s="13">
+      <c r="S51" s="10">
+        <v>0</v>
+      </c>
+      <c r="T51" s="10">
+        <v>0</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0</v>
+      </c>
+      <c r="V51" s="10">
+        <v>0</v>
+      </c>
+      <c r="W51" s="10">
+        <v>0</v>
+      </c>
+      <c r="X51" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7969,135 +7943,135 @@
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="10">
         <v>7</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="10">
         <v>7</v>
       </c>
-      <c r="E52" s="13">
-        <v>0</v>
-      </c>
-      <c r="F52" s="13">
-        <v>0</v>
-      </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="J52" s="13" t="s">
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="J52" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K52" s="13">
-        <v>0</v>
-      </c>
-      <c r="L52" s="13">
-        <v>0</v>
-      </c>
-      <c r="M52" s="13">
-        <v>0</v>
-      </c>
-      <c r="N52" s="13">
-        <v>0</v>
-      </c>
-      <c r="O52" s="13">
-        <v>0</v>
-      </c>
-      <c r="P52" s="13">
-        <v>0</v>
-      </c>
-      <c r="R52" s="13" t="s">
+      <c r="K52" s="10">
+        <v>0</v>
+      </c>
+      <c r="L52" s="10">
+        <v>0</v>
+      </c>
+      <c r="M52" s="10">
+        <v>0</v>
+      </c>
+      <c r="N52" s="10">
+        <v>0</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
+        <v>0</v>
+      </c>
+      <c r="R52" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="S52" s="13">
-        <v>0</v>
-      </c>
-      <c r="T52" s="13">
-        <v>0</v>
-      </c>
-      <c r="U52" s="13">
-        <v>0</v>
-      </c>
-      <c r="V52" s="13">
-        <v>0</v>
-      </c>
-      <c r="W52" s="13">
-        <v>0</v>
-      </c>
-      <c r="X52" s="13">
+      <c r="S52" s="10">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10">
+        <v>0</v>
+      </c>
+      <c r="U52" s="10">
+        <v>0</v>
+      </c>
+      <c r="V52" s="10">
+        <v>0</v>
+      </c>
+      <c r="W52" s="10">
+        <v>0</v>
+      </c>
+      <c r="X52" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="13">
-        <v>0</v>
-      </c>
-      <c r="D53" s="13">
-        <v>0</v>
-      </c>
-      <c r="E53" s="13">
-        <v>0</v>
-      </c>
-      <c r="F53" s="13">
-        <v>0</v>
-      </c>
-      <c r="G53" s="13">
-        <v>0</v>
-      </c>
-      <c r="H53" s="13">
-        <v>0</v>
-      </c>
-      <c r="J53" s="13" t="s">
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K53" s="13">
-        <v>1</v>
-      </c>
-      <c r="L53" s="13">
+      <c r="K53" s="10">
+        <v>1</v>
+      </c>
+      <c r="L53" s="10">
         <v>5</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M53" s="10">
         <v>5</v>
       </c>
-      <c r="N53" s="13">
-        <v>0</v>
-      </c>
-      <c r="O53" s="13">
-        <v>0</v>
-      </c>
-      <c r="P53" s="13">
-        <v>0</v>
-      </c>
-      <c r="R53" s="13" t="s">
+      <c r="N53" s="10">
+        <v>0</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
+        <v>0</v>
+      </c>
+      <c r="R53" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="S53" s="13">
-        <v>0</v>
-      </c>
-      <c r="T53" s="13">
-        <v>0</v>
-      </c>
-      <c r="U53" s="13">
-        <v>0</v>
-      </c>
-      <c r="V53" s="13">
-        <v>0</v>
-      </c>
-      <c r="W53" s="13">
-        <v>0</v>
-      </c>
-      <c r="X53" s="13">
+      <c r="S53" s="10">
+        <v>0</v>
+      </c>
+      <c r="T53" s="10">
+        <v>0</v>
+      </c>
+      <c r="U53" s="10">
+        <v>0</v>
+      </c>
+      <c r="V53" s="10">
+        <v>0</v>
+      </c>
+      <c r="W53" s="10">
+        <v>0</v>
+      </c>
+      <c r="X53" s="10">
         <v>0</v>
       </c>
     </row>
@@ -8105,67 +8079,67 @@
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="10">
         <v>3</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="10">
         <v>21</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="10">
         <v>11</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="10">
         <v>10</v>
       </c>
-      <c r="G54" s="13">
-        <v>0</v>
-      </c>
-      <c r="H54" s="13">
-        <v>0</v>
-      </c>
-      <c r="J54" s="13" t="s">
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="J54" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="10">
         <v>4</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="10">
         <v>45</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M54" s="10">
         <v>14</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N54" s="10">
         <v>31</v>
       </c>
-      <c r="O54" s="13">
-        <v>0</v>
-      </c>
-      <c r="P54" s="13">
-        <v>0</v>
-      </c>
-      <c r="R54" s="13" t="s">
+      <c r="O54" s="10">
+        <v>0</v>
+      </c>
+      <c r="P54" s="10">
+        <v>0</v>
+      </c>
+      <c r="R54" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S54" s="13">
+      <c r="S54" s="10">
         <v>2</v>
       </c>
-      <c r="T54" s="13">
+      <c r="T54" s="10">
         <v>30</v>
       </c>
-      <c r="U54" s="13">
-        <v>0</v>
-      </c>
-      <c r="V54" s="13">
+      <c r="U54" s="10">
+        <v>0</v>
+      </c>
+      <c r="V54" s="10">
         <v>30</v>
       </c>
-      <c r="W54" s="13">
-        <v>0</v>
-      </c>
-      <c r="X54" s="13">
+      <c r="W54" s="10">
+        <v>0</v>
+      </c>
+      <c r="X54" s="10">
         <v>0</v>
       </c>
     </row>
